--- a/ind_crawl1.xlsx
+++ b/ind_crawl1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work &amp; Academic\Github\indiana_court_scrape\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD82602-F10F-418E-A277-5A3C2BAF0AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06273359-F55A-42D8-B662-3F6C4537CE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6168" yWindow="1992" windowWidth="14940" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="191">
   <si>
     <t>Court.Identifier</t>
   </si>
@@ -950,7 +950,7 @@
   <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27:F27"/>
+      <selection activeCell="E29" sqref="E29:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1511,6 +1511,12 @@
       <c r="D28">
         <v>1</v>
       </c>
+      <c r="E28" t="s">
+        <v>190</v>
+      </c>
+      <c r="F28" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -1524,6 +1530,12 @@
       </c>
       <c r="D29">
         <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>190</v>
+      </c>
+      <c r="F29" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
